--- a/data/trans_orig/CAMINAR_TIEMPO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CAMINAR_TIEMPO-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nº medio de minutos/día en los que se camina</t>
+          <t>Nº medio de minutos/día en los que se camina (tasa de respuesta: 97,2%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CAMINAR_TIEMPO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CAMINAR_TIEMPO-Estudios-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>87,24</t>
+          <t>91,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>62,03</t>
+          <t>59,89</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>71,52</t>
+          <t>72,12</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>78,62; 97,69</t>
+          <t>80,56; 106,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>44,82; 62,85</t>
+          <t>44,34; 62,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>45,55; 148,17</t>
+          <t>46,61; 170,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>56,4; 68,22</t>
+          <t>53,75; 66,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,73; 39,38</t>
+          <t>32,07; 39,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,55; 56,2</t>
+          <t>36,09; 56,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>66,6; 76,96</t>
+          <t>66,11; 79,43</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>38,1; 46,03</t>
+          <t>38,1; 46,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>44,79; 94,46</t>
+          <t>44,56; 100,34</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>98,35</t>
+          <t>100,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>82,63</t>
+          <t>88,98</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>90,4</t>
+          <t>94,61</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>93,35; 104,57</t>
+          <t>94,19; 107,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,47; 63,8</t>
+          <t>44,51; 64,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>50,75; 61,71</t>
+          <t>49,74; 60,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>78,27; 86,86</t>
+          <t>84,09; 94,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,77; 125,35</t>
+          <t>51,55; 116,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>44,54; 52,65</t>
+          <t>44,44; 52,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>87,15; 94,02</t>
+          <t>90,65; 98,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>52,26; 92,61</t>
+          <t>52,98; 98,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>48,46; 54,97</t>
+          <t>48,16; 54,6</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>86,55</t>
+          <t>85,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>89,07</t>
+          <t>88,95</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>87,99</t>
+          <t>87,42</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>79,63; 96,36</t>
+          <t>79,1; 94,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>56,71; 70,06</t>
+          <t>56,93; 71,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>41,23; 49,89</t>
+          <t>41,43; 50,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>82,17; 97,95</t>
+          <t>82,41; 96,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>53,86; 62,84</t>
+          <t>53,3; 62,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>44,38; 51,8</t>
+          <t>44,63; 51,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>83,27; 94,38</t>
+          <t>82,6; 93,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>56,25; 64,47</t>
+          <t>56,59; 64,54</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>43,98; 49,47</t>
+          <t>44,09; 49,56</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>94,29</t>
+          <t>95,22</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>80,83</t>
+          <t>84,84</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>87,04</t>
+          <t>89,79</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,98; 98,51</t>
+          <t>90,82; 100,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>48,49; 62,46</t>
+          <t>46,88; 62,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>49,41; 64,4</t>
+          <t>49,2; 63,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>78,01; 84,56</t>
+          <t>81,46; 89,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,7; 102,45</t>
+          <t>49,66; 98,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>45,03; 50,25</t>
+          <t>45,14; 50,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>84,33; 89,68</t>
+          <t>87,06; 93,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>52,88; 85,38</t>
+          <t>52,57; 80,3</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>47,82; 54,41</t>
+          <t>47,81; 54,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CAMINAR_TIEMPO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CAMINAR_TIEMPO-Estudios-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>49,99</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>70,67</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>59,88</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>91,61</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>52,04</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>59,88</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>70,67</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>34,92</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>44,18</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>46,59</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>59,89</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>35,5</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>46,59</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>44,18</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>40,55</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>56,85</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>52,38</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>72,12</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>41,59</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>52,38</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>56,85</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>43,06; 59,23</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>46,61; 170,14</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>53,82; 70,09</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>80,56; 106,69</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>44,34; 62,44</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>53,82; 70,09</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>46,61; 170,14</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>31,6; 39,12</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>36,09; 56,72</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>42,29; 52,14</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>53,75; 66,96</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>32,07; 39,77</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>42,29; 52,14</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>36,09; 56,72</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>37,09; 44,66</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>44,56; 100,34</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>48,6; 57,63</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>66,11; 79,43</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>38,1; 46,2</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>48,6; 57,63</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>44,56; 100,34</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>63,29</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>54,97</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>88,94</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>100,05</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>56,72</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>88,94</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>54,97</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>52,06</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>47,9</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>80,99</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>88,98</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>73,38</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>80,99</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>47,9</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>57,72</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>51,43</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>84,94</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>94,61</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>64,98</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>84,94</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>51,43</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>59,25; 68,18</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>49,74; 60,42</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>83,51; 94,2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>94,19; 107,98</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>44,51; 64,29</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>83,51; 94,2</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>49,74; 60,42</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>49,34; 55,4</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>44,44; 52,51</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>76,07; 86,92</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>84,09; 94,47</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>51,55; 116,05</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>76,07; 86,92</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>44,44; 52,51</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>55,27; 60,54</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>48,16; 54,6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>81,34; 88,66</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>90,65; 98,82</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>52,98; 98,8</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>81,34; 88,66</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>48,16; 54,6</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>63,35</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>45,1</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>78,48</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>85,55</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>62,55</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>78,48</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>45,1</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>57,88</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>47,78</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>72,44</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>88,95</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>57,6</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>72,44</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>47,78</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>60,65</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>46,59</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>75,33</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>87,42</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>60,12</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>75,33</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>46,59</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>58,05; 72,26</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>41,43; 50,07</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>71,3; 87,88</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>79,1; 94,92</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>56,93; 71,47</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>71,3; 87,88</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>41,43; 50,07</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>53,74; 62,68</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>44,63; 51,8</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>66,94; 79,4</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>82,41; 96,78</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>53,3; 62,7</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>66,94; 79,4</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>44,63; 51,8</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>57,15; 64,97</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>44,09; 49,56</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>70,02; 80,44</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>82,6; 93,56</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>56,59; 64,54</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>70,02; 80,44</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>44,09; 49,56</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>61,59</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>53,48</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>81,95</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>95,22</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>57,47</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>81,95</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>53,48</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>49,9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>47,41</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>72,65</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>84,84</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>63,35</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>72,65</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>47,41</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>55,54</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>50,29</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>77,14</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>89,79</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>60,5</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>77,14</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>50,29</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>58,35; 65,14</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>49,2; 63,96</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>77,89; 86,22</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>90,82; 100,9</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>46,88; 62,4</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>77,89; 86,22</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>49,2; 63,96</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>47,9; 52,18</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>45,14; 50,38</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>69,38; 76,59</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>81,46; 89,05</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>49,66; 98,09</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>69,38; 76,59</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>45,14; 50,38</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>53,52; 57,39</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>47,81; 54,59</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>74,8; 79,95</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>87,06; 93,19</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>52,57; 80,3</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>74,8; 79,95</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>47,81; 54,59</t>
         </is>
       </c>
     </row>
